--- a/biology/Zoologie/Cathetocephalus/Cathetocephalus.xlsx
+++ b/biology/Zoologie/Cathetocephalus/Cathetocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cathetocephalus est un genre de cestodes de la famille des Cathetocephalidae. Ce sont des parasites que l'on rencontre, par exemple, chez les requins du genre Carcharhinus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cathetocephalus est un genre de cestodes de la famille des Cathetocephalidae. Ce sont des parasites que l'on rencontre, par exemple, chez les requins du genre Carcharhinus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cathetocephalus a été créé en 1973 par Murray D. Dailey (d) et Robin M. Overstreet (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cathetocephalus a été créé en 1973 par Murray D. Dailey (d) et Robin M. Overstreet (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 juillet 2021) :
 Cathetocephalus australis Schmidt &amp; Beveridge, 1990
 Cathetocephalus leucas Vankara, Vijayalakshmi &amp; Gangadharam, 2007
 Cathetocephalus limbatus Pramanik &amp; Manna, 2006
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Murray D. Dailey et Robin M. Overstreet, « Cathetocephalus thatcheri gen. et sp. n. (Tetraphyllidea: Cathetocephalidae fam. n.) from the Bull Shark: A Species Demonstrating Multistrobilization », Journal of Parasitology, Chicago, American Society of Parasitologists (d), vol. 59, no 3,‎ juin 1973, p. 469-473 (ISSN 0022-3395 et 1937-2345, OCLC 1606759, DOI 10.2307/3278775)</t>
         </is>
